--- a/Test Data/Gallery_Ethernet_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_ProPanels.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2665293A-E9DC-470F-8B77-B6A03A1A4F91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D96874-FE9B-4C20-B23D-12439E9FAB61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="8" r:id="rId2"/>
+    <sheet name="Czech" sheetId="9" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
   <si>
     <t>Wg</t>
   </si>
@@ -82,6 +83,12 @@
   </si>
   <si>
     <t>NGC-3475/T2263</t>
+  </si>
+  <si>
+    <t>Czech Market</t>
+  </si>
+  <si>
+    <t>NGC-3478/T1732</t>
   </si>
 </sst>
 </file>
@@ -607,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE99313-E25B-46AF-9427-E0EA81FBAA22}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -703,4 +710,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA1A65E-B504-4BED-88F2-BADF603DFA3B}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_ProPanels.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D96874-FE9B-4C20-B23D-12439E9FAB61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EF50DF-9185-40AB-820D-345499AE2628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="8" r:id="rId2"/>
     <sheet name="Czech" sheetId="9" r:id="rId3"/>
+    <sheet name="Swiss" sheetId="10" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
   <si>
     <t>Wg</t>
   </si>
@@ -89,6 +90,18 @@
   </si>
   <si>
     <t>NGC-3478/T1732</t>
+  </si>
+  <si>
+    <t>Switzerland Market</t>
+  </si>
+  <si>
+    <t>NGC-3476/T2352</t>
+  </si>
+  <si>
+    <t>PR1DSCH</t>
+  </si>
+  <si>
+    <t>PR8ASCH</t>
   </si>
 </sst>
 </file>
@@ -716,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA1A65E-B504-4BED-88F2-BADF603DFA3B}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -812,4 +825,116 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D55F5E7-F3D7-420C-9BFE-AB256EEFDBA9}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_ProPanels.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42EF50DF-9185-40AB-820D-345499AE2628}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8911C0F3-4214-4BD9-B88E-D70B0E5890B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
     <sheet name="Belgium" sheetId="8" r:id="rId2"/>
     <sheet name="Czech" sheetId="9" r:id="rId3"/>
     <sheet name="Swiss" sheetId="10" r:id="rId4"/>
+    <sheet name="Portugal" sheetId="11" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="24">
   <si>
     <t>Wg</t>
   </si>
@@ -102,6 +103,12 @@
   </si>
   <si>
     <t>PR8ASCH</t>
+  </si>
+  <si>
+    <t>Portugal Market</t>
+  </si>
+  <si>
+    <t>NGC-3479/T2407</t>
   </si>
 </sst>
 </file>
@@ -831,7 +838,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D55F5E7-F3D7-420C-9BFE-AB256EEFDBA9}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -937,4 +944,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F77533-A2A7-4078-8018-C0C1E886702D}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8911C0F3-4214-4BD9-B88E-D70B0E5890B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD3730D-04C5-4B47-A672-77CF49BCFE39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -84,15 +84,9 @@
     <t>Belgium Market</t>
   </si>
   <si>
-    <t>NGC-3475/T2263</t>
-  </si>
-  <si>
     <t>Czech Market</t>
   </si>
   <si>
-    <t>NGC-3478/T1732</t>
-  </si>
-  <si>
     <t>Switzerland Market</t>
   </si>
   <si>
@@ -108,7 +102,13 @@
     <t>Portugal Market</t>
   </si>
   <si>
-    <t>NGC-3479/T2407</t>
+    <t>NGC-3479/T2407/T2508</t>
+  </si>
+  <si>
+    <t>NGC-3478/T2263</t>
+  </si>
+  <si>
+    <t>NGC-3477/T1732</t>
   </si>
 </sst>
 </file>
@@ -533,7 +533,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE99313-E25B-46AF-9427-E0EA81FBAA22}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -681,7 +681,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -737,7 +737,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,7 +761,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -783,7 +783,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -863,7 +863,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -885,7 +885,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
@@ -913,7 +913,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -923,7 +923,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97F77533-A2A7-4078-8018-C0C1E886702D}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,7 +975,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -997,7 +997,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Ethernet_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD3730D-04C5-4B47-A672-77CF49BCFE39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5317E04-3322-47C6-AAC2-CD8D36EACFA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Czech" sheetId="9" r:id="rId3"/>
     <sheet name="Swiss" sheetId="10" r:id="rId4"/>
     <sheet name="Portugal" sheetId="11" r:id="rId5"/>
+    <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
   <si>
     <t>Wg</t>
   </si>
@@ -533,7 +534,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -634,7 +635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE99313-E25B-46AF-9427-E0EA81FBAA22}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -1046,4 +1047,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FC7644-F6E4-4576-ACFE-74A363ACA49E}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5317E04-3322-47C6-AAC2-CD8D36EACFA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D004BD88-B90C-4198-8D52-2D34CBF2E181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Swiss" sheetId="10" r:id="rId4"/>
     <sheet name="Portugal" sheetId="11" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
+    <sheet name="Italy" sheetId="13" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="26">
   <si>
     <t>Wg</t>
   </si>
@@ -110,6 +111,12 @@
   </si>
   <si>
     <t>NGC-3477/T1732</t>
+  </si>
+  <si>
+    <t>NGC-3145/T2154</t>
+  </si>
+  <si>
+    <t>Italy Market</t>
   </si>
 </sst>
 </file>
@@ -1053,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0FC7644-F6E4-4576-ACFE-74A363ACA49E}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1149,4 +1156,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0557F5C2-F5FC-4397-982C-EC584A0FA417}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_ProPanels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D004BD88-B90C-4198-8D52-2D34CBF2E181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34EA950-A2B7-49F0-B9C6-E3FA87165245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="Portugal" sheetId="11" r:id="rId5"/>
     <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
     <sheet name="Italy" sheetId="13" r:id="rId7"/>
+    <sheet name="Spain" sheetId="14" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="28">
   <si>
     <t>Wg</t>
   </si>
@@ -117,6 +118,12 @@
   </si>
   <si>
     <t>Italy Market</t>
+  </si>
+  <si>
+    <t>NGC-3103/T2044</t>
+  </si>
+  <si>
+    <t>Spain Market</t>
   </si>
 </sst>
 </file>
@@ -1162,8 +1169,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0557F5C2-F5FC-4397-982C-EC584A0FA417}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1258,4 +1265,106 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B66EE9-4EA4-4257-9159-6D73E7295E71}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8:G9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C34EA950-A2B7-49F0-B9C6-E3FA87165245}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2298C1B-25AF-45A9-A6D7-5E779F6290E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Slovakia" sheetId="12" r:id="rId6"/>
     <sheet name="Italy" sheetId="13" r:id="rId7"/>
     <sheet name="Spain" sheetId="14" r:id="rId8"/>
+    <sheet name="Turkey" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="30">
   <si>
     <t>Wg</t>
   </si>
@@ -124,6 +125,12 @@
   </si>
   <si>
     <t>Spain Market</t>
+  </si>
+  <si>
+    <t>Turkey Market</t>
+  </si>
+  <si>
+    <t>NGC-3191/T3298</t>
   </si>
 </sst>
 </file>
@@ -1271,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B66EE9-4EA4-4257-9159-6D73E7295E71}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8:G9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1367,4 +1374,105 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3FC040-9358-42EC-887D-4AED00EED494}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test Data/Gallery_Ethernet_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2298C1B-25AF-45A9-A6D7-5E779F6290E1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53C05F7-CB13-446E-90C9-F3B9F455334B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Italy" sheetId="13" r:id="rId7"/>
     <sheet name="Spain" sheetId="14" r:id="rId8"/>
     <sheet name="Turkey" sheetId="15" r:id="rId9"/>
+    <sheet name="Croatia" sheetId="16" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="32">
   <si>
     <t>Wg</t>
   </si>
@@ -131,6 +132,12 @@
   </si>
   <si>
     <t>NGC-3191/T3298</t>
+  </si>
+  <si>
+    <t>Croatia Market</t>
+  </si>
+  <si>
+    <t>NGC-3139/T2423</t>
   </si>
 </sst>
 </file>
@@ -652,6 +659,107 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE2A3F6-A72A-4965-9742-9A48496ECB81}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE99313-E25B-46AF-9427-E0EA81FBAA22}">
   <dimension ref="A1:D11"/>
@@ -1380,8 +1488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D3FC040-9358-42EC-887D-4AED00EED494}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Test Data/Gallery_Ethernet_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A53C05F7-CB13-446E-90C9-F3B9F455334B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DBB181-555D-4148-A200-5157D9FC96EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="9" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Spain" sheetId="14" r:id="rId8"/>
     <sheet name="Turkey" sheetId="15" r:id="rId9"/>
     <sheet name="Croatia" sheetId="16" r:id="rId10"/>
+    <sheet name="Greece" sheetId="17" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="34">
   <si>
     <t>Wg</t>
   </si>
@@ -138,6 +139,12 @@
   </si>
   <si>
     <t>NGC-3139/T2423</t>
+  </si>
+  <si>
+    <t>NGC-4119/T3165</t>
+  </si>
+  <si>
+    <t>Greece Market</t>
   </si>
 </sst>
 </file>
@@ -663,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCE2A3F6-A72A-4965-9742-9A48496ECB81}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -710,6 +717,107 @@
       </c>
       <c r="B4" t="s">
         <v>31</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A693044F-44E2-45D0-80E8-2D0BC53EE549}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Ethernet_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92DBB181-555D-4148-A200-5157D9FC96EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603E9371-A873-4C03-A77D-869E742AD949}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="10" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -24,6 +24,9 @@
     <sheet name="Turkey" sheetId="15" r:id="rId9"/>
     <sheet name="Croatia" sheetId="16" r:id="rId10"/>
     <sheet name="Greece" sheetId="17" r:id="rId11"/>
+    <sheet name="Netherlands" sheetId="18" r:id="rId12"/>
+    <sheet name="Austria" sheetId="19" r:id="rId13"/>
+    <sheet name="Denmark" sheetId="20" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="40">
   <si>
     <t>Wg</t>
   </si>
@@ -145,6 +148,24 @@
   </si>
   <si>
     <t>Greece Market</t>
+  </si>
+  <si>
+    <t>NGC-3144/T2185</t>
+  </si>
+  <si>
+    <t>Netherlands Market</t>
+  </si>
+  <si>
+    <t>NGC-3817/T2281</t>
+  </si>
+  <si>
+    <t>Austria Market</t>
+  </si>
+  <si>
+    <t>NGC-2913/T2755</t>
+  </si>
+  <si>
+    <t>Denmark Market</t>
   </si>
 </sst>
 </file>
@@ -771,7 +792,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A693044F-44E2-45D0-80E8-2D0BC53EE549}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -818,6 +839,312 @@
       </c>
       <c r="B4" t="s">
         <v>32</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EDEE2F-3687-4403-BFAF-FA5F22F7E8A0}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93FF78A6-D96A-4A1E-ADCA-1657B135C677}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2004D34-5327-42A2-9A7F-B5CC9B8B8381}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.21875" customWidth="1"/>
+    <col min="4" max="4" width="22.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">

--- a/Test Data/Gallery_Ethernet_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{603E9371-A873-4C03-A77D-869E742AD949}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC9C50E-1B20-4978-AFEE-5B99E5F54BA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="11" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -27,6 +27,9 @@
     <sheet name="Netherlands" sheetId="18" r:id="rId12"/>
     <sheet name="Austria" sheetId="19" r:id="rId13"/>
     <sheet name="Denmark" sheetId="20" r:id="rId14"/>
+    <sheet name="Russia" sheetId="22" r:id="rId15"/>
+    <sheet name="Finland" sheetId="23" r:id="rId16"/>
+    <sheet name="Hungary" sheetId="24" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="46">
   <si>
     <t>Wg</t>
   </si>
@@ -166,6 +169,24 @@
   </si>
   <si>
     <t>Denmark Market</t>
+  </si>
+  <si>
+    <t>NGC-2929/T2898</t>
+  </si>
+  <si>
+    <t>Russia Market</t>
+  </si>
+  <si>
+    <t>NGC-3130/T2941</t>
+  </si>
+  <si>
+    <t>Finland Market</t>
+  </si>
+  <si>
+    <t>NGC-3104/T2990</t>
+  </si>
+  <si>
+    <t>Hungary Market</t>
   </si>
 </sst>
 </file>
@@ -893,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45EDEE2F-3687-4403-BFAF-FA5F22F7E8A0}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1195,6 +1216,309 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8A042CF-C4DB-49A0-9CD4-1B84AA44AE2A}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98CD343F-4D88-4788-93A8-74F06D40A395}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CD6F17-79C2-4008-8567-89F49E6F00A0}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EE99313-E25B-46AF-9427-E0EA81FBAA22}">
   <dimension ref="A1:D11"/>

--- a/Test Data/Gallery_Ethernet_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC9C50E-1B20-4978-AFEE-5B99E5F54BA8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17378A65-96F4-498B-A944-ABB1DB25BBCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="16" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -30,6 +30,8 @@
     <sheet name="Russia" sheetId="22" r:id="rId15"/>
     <sheet name="Finland" sheetId="23" r:id="rId16"/>
     <sheet name="Hungary" sheetId="24" r:id="rId17"/>
+    <sheet name="Norway" sheetId="25" r:id="rId18"/>
+    <sheet name="Poland" sheetId="26" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="50">
   <si>
     <t>Wg</t>
   </si>
@@ -187,6 +189,18 @@
   </si>
   <si>
     <t>Hungary Market</t>
+  </si>
+  <si>
+    <t>NGC-2931/T3059</t>
+  </si>
+  <si>
+    <t>Norway Market</t>
+  </si>
+  <si>
+    <t>NGC-2920/3102</t>
+  </si>
+  <si>
+    <t>Poland Market</t>
   </si>
 </sst>
 </file>
@@ -1422,8 +1436,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85CD6F17-79C2-4008-8567-89F49E6F00A0}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1476,6 +1490,208 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AA092D-934B-43CA-B3CF-7BE5C9E5B404}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9FB331D-A392-4F58-9A21-2E95783941D1}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
       <c r="D5" s="2" t="s">
         <v>8</v>

--- a/Test Data/Gallery_Ethernet_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_ProPanels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17378A65-96F4-498B-A944-ABB1DB25BBCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA299A7-9E0E-4205-909B-05B5BFBADDE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="17" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
   <sheets>
     <sheet name="Germany" sheetId="7" r:id="rId1"/>
@@ -32,6 +32,7 @@
     <sheet name="Hungary" sheetId="24" r:id="rId17"/>
     <sheet name="Norway" sheetId="25" r:id="rId18"/>
     <sheet name="Poland" sheetId="26" r:id="rId19"/>
+    <sheet name="UK" sheetId="27" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="52">
   <si>
     <t>Wg</t>
   </si>
@@ -201,6 +202,12 @@
   </si>
   <si>
     <t>Poland Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3334</t>
+  </si>
+  <si>
+    <t>UK Market</t>
   </si>
 </sst>
 </file>
@@ -1537,7 +1544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AA092D-934B-43CA-B3CF-7BE5C9E5B404}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -1837,6 +1844,107 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3340BC-AAA2-492A-8201-C9866C76E773}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" s="6"/>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C2:D2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA1A65E-B504-4BED-88F2-BADF603DFA3B}">
   <dimension ref="A1:D11"/>

--- a/Test Data/Gallery_Ethernet_ProPanels.xlsx
+++ b/Test Data/Gallery_Ethernet_ProPanels.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\consys-uiauto\Test Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA299A7-9E0E-4205-909B-05B5BFBADDE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{542B39AC-AD47-411C-AAE6-37BACC23E082}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="9" activeTab="19" xr2:uid="{C41C5F48-4FD1-41E2-932B-493D5E69981C}"/>
   </bookViews>
@@ -204,10 +204,10 @@
     <t>Poland Market</t>
   </si>
   <si>
-    <t>NGC-2741/T3334</t>
-  </si>
-  <si>
     <t>UK Market</t>
+  </si>
+  <si>
+    <t>NGC-2741/T3341</t>
   </si>
 </sst>
 </file>
@@ -1849,7 +1849,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1872,7 +1872,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>3</v>
@@ -1894,7 +1894,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="2" t="s">
